--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1393.702630893671</v>
+        <v>143.8874230429089</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8999998569488525</v>
+        <v>0.5339999198913574</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.84839347967298</v>
+        <v>45.88742304290889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.58460255878718</v>
+        <v>0.5435476060107338</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.68883997447806</v>
+        <v>0.5435476060107338</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1215.409999998308</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,56 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -907,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.685690984262592</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>32.62880953170716</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454953</v>
+        <v>33.15539848409921</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>42.28226196994633</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.04208713267367</v>
+        <v>39.79316574842335</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,141 +957,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6099999999878</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5949999999847</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.239999999987</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4399999999895</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.654999999986</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>162.654999999906</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.8199999998996</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>161.8900000000789</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>162.9650000000558</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>162.9199999998971</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>247.7249999997492</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>247.3599999997623</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>236.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>245.934999999994</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>245.6649999997569</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000468</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000315</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000548</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000418</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6149999999215</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.810000000025</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000584</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000247</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>247.7250000000797</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>247.3599999997088</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>236.8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>245.9350000000662</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.6649999996948</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.615000000038</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000376</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.465000000122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000392</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>97.72499999970137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>97.35999999970636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>86.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>95.93500000006543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>95.66499999969233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.6150000000365</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.81000000003723</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.4649999998768</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>29.13000000003774</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2083,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +1940,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +1951,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +1962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +1973,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,122 +1984,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
